--- a/medicine/Pharmacie/1827_en_santé_et_médecine/1827_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1827_en_santé_et_médecine/1827_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1827_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1827_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1827 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1827_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1827_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le chirurgien irlandais Robert Adams décrit pour la première fois la maladie cardiaque connue sous le nom de syndrome d'Adams-Stokes[1].
-Le médecin britannique Richard Bright décrit la maladie qui porte son nom, une insuffisance rénale chronique et reconnait la corrélation qui existe entre l'albuminurie et certaines lésions rénales[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le chirurgien irlandais Robert Adams décrit pour la première fois la maladie cardiaque connue sous le nom de syndrome d'Adams-Stokes.
+Le médecin britannique Richard Bright décrit la maladie qui porte son nom, une insuffisance rénale chronique et reconnait la corrélation qui existe entre l'albuminurie et certaines lésions rénales.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1827_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1827_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Montyon : Pierre Joseph Pelletier et Joseph Bienaimé Caventou pour la découverte de la quinine.
-Médaille Copley : William Prout (1785-1850), pour un article sur la composition de substances alimentaires simples[3].</t>
+Médaille Copley : William Prout (1785-1850), pour un article sur la composition de substances alimentaires simples.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1827_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1827_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">5 avril : Joseph Lister (mort en 1912), chirurgien britannique, pionnier de l'antisepsie dans la chirurgie opératoire.
-19 avril : Daniel Hack Tuke (mort en 1895), psychiatre anglais[4].
+19 avril : Daniel Hack Tuke (mort en 1895), psychiatre anglais.
 10 mai : Kusumoto Ine (morte en 1903), première femme médecin du Japon, fille de Kusumoto Otaki et Philipp Franz von Siebold.
 1er juillet :
 Edmond-Léonce Hiffelsheim (mort en 1865), médecin français, connu pour ses recherches sur l'électrothérapie.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1827_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1827_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2 avril : Ludwig Heinrich Bojanus, (né en 1776), médecin et naturaliste allemand[5].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 avril : Ludwig Heinrich Bojanus, (né en 1776), médecin et naturaliste allemand.</t>
         </is>
       </c>
     </row>
